--- a/data/landings/cdfw/public/fish_bulletins/raw/fb89/raw/Tables25-31.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb89/raw/Tables25-31.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb89/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47614E61-EBE0-2E44-A6C1-AB66782265FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35482CD-7F5F-1047-B981-17375D8C4B59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="2080" windowWidth="21120" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$425</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="182">
   <si>
     <t>San Francisco region totals</t>
   </si>
@@ -560,6 +563,12 @@
   </si>
   <si>
     <t>pounds</t>
+  </si>
+  <si>
+    <t>All species</t>
+  </si>
+  <si>
+    <t>All other species</t>
   </si>
 </sst>
 </file>
@@ -926,15 +935,15 @@
   <dimension ref="A1:E425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -959,8 +968,11 @@
       <c r="A2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
       </c>
       <c r="D2" s="2">
         <v>3144182</v>
@@ -1157,8 +1169,12 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>176</v>
       </c>
@@ -1342,8 +1358,12 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>176</v>
       </c>
@@ -1476,8 +1496,12 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="C33" s="3" t="s">
         <v>176</v>
       </c>
@@ -1593,8 +1617,12 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="C40" s="3" t="s">
         <v>176</v>
       </c>
@@ -1676,8 +1704,12 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="C45" s="3" t="s">
         <v>176</v>
       </c>
@@ -1742,8 +1774,12 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="C49" s="3" t="s">
         <v>176</v>
       </c>
@@ -1764,7 +1800,7 @@
         <v>145</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D50" s="2">
         <v>7720</v>
@@ -1791,18 +1827,31 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="C52" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
       </c>
       <c r="D53" s="2">
         <v>438812</v>
@@ -1914,8 +1963,12 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="C60" s="3" t="s">
         <v>176</v>
       </c>
@@ -1997,8 +2050,12 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="C65" s="3" t="s">
         <v>176</v>
       </c>
@@ -2063,8 +2120,12 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C69" s="3" t="s">
         <v>176</v>
       </c>
@@ -2129,8 +2190,12 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C73" s="3" t="s">
         <v>176</v>
       </c>
@@ -2178,13 +2243,21 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="C76" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
@@ -2255,8 +2328,12 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="C81" s="3" t="s">
         <v>176</v>
       </c>
@@ -2321,8 +2398,12 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C85" s="3" t="s">
         <v>176</v>
       </c>
@@ -2360,7 +2441,7 @@
         <v>145</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="D87" s="2">
         <v>10021</v>
@@ -2387,6 +2468,12 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="C89" s="3" t="s">
         <v>176</v>
       </c>
@@ -2403,8 +2490,11 @@
       <c r="A90" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>0</v>
+      <c r="B90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
       </c>
       <c r="D90" s="2">
         <v>3808210</v>
@@ -2686,8 +2776,12 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C107" s="3" t="s">
         <v>176</v>
       </c>
@@ -2820,7 +2914,12 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
       <c r="C115" s="3" t="s">
         <v>176</v>
       </c>
@@ -2987,7 +3086,12 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" t="s">
+        <v>122</v>
+      </c>
       <c r="C125" s="3" t="s">
         <v>176</v>
       </c>
@@ -3069,7 +3173,12 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A130" s="1"/>
+      <c r="A130" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>29</v>
+      </c>
       <c r="C130" s="3" t="s">
         <v>176</v>
       </c>
@@ -3151,7 +3260,12 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A135" s="1"/>
+      <c r="A135" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>31</v>
+      </c>
       <c r="C135" s="3" t="s">
         <v>176</v>
       </c>
@@ -3250,7 +3364,12 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A141" s="1"/>
+      <c r="A141" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2</v>
+      </c>
       <c r="C141" s="3" t="s">
         <v>176</v>
       </c>
@@ -3332,7 +3451,12 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A146" s="1"/>
+      <c r="A146" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B146" t="s">
+        <v>95</v>
+      </c>
       <c r="C146" s="3" t="s">
         <v>176</v>
       </c>
@@ -3397,7 +3521,12 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A150" s="1"/>
+      <c r="A150" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B150" t="s">
+        <v>34</v>
+      </c>
       <c r="C150" s="3" t="s">
         <v>176</v>
       </c>
@@ -3462,8 +3591,12 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+      <c r="A154" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C154" s="3" t="s">
         <v>176</v>
       </c>
@@ -3483,8 +3616,8 @@
       <c r="B155" t="s">
         <v>37</v>
       </c>
-      <c r="C155" t="s">
-        <v>11</v>
+      <c r="C155" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="D155" s="2">
         <v>8649</v>
@@ -3511,18 +3644,31 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A157" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C157" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
+      <c r="D157" s="4">
+        <v>0</v>
+      </c>
+      <c r="E157" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="B158" t="s">
+        <v>38</v>
+      </c>
       <c r="C158" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D158" s="2">
         <v>1837021</v>
@@ -3821,8 +3967,12 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+      <c r="A176" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C176" s="3" t="s">
         <v>176</v>
       </c>
@@ -4040,8 +4190,12 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+      <c r="A189" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C189" s="3" t="s">
         <v>176</v>
       </c>
@@ -4276,8 +4430,12 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
+      <c r="A203" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C203" s="3" t="s">
         <v>176</v>
       </c>
@@ -4298,7 +4456,7 @@
         <v>145</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="D204" s="2">
         <v>740</v>
@@ -4325,18 +4483,31 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A206" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="C206" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
+      <c r="D206" s="4">
+        <v>0</v>
+      </c>
+      <c r="E206" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="B207" t="s">
+        <v>104</v>
+      </c>
       <c r="C207" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="D207" s="2">
         <v>2243358</v>
@@ -4482,7 +4653,12 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A216" s="1"/>
+      <c r="A216" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B216" t="s">
+        <v>124</v>
+      </c>
       <c r="C216" s="3" t="s">
         <v>176</v>
       </c>
@@ -4615,7 +4791,12 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A224" s="1"/>
+      <c r="A224" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B224" t="s">
+        <v>105</v>
+      </c>
       <c r="C224" s="3" t="s">
         <v>176</v>
       </c>
@@ -4850,7 +5031,12 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A238" s="1"/>
+      <c r="A238" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B238" t="s">
+        <v>87</v>
+      </c>
       <c r="C238" s="3" t="s">
         <v>176</v>
       </c>
@@ -4983,7 +5169,12 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A246" s="1"/>
+      <c r="A246" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B246" t="s">
+        <v>106</v>
+      </c>
       <c r="C246" s="3" t="s">
         <v>176</v>
       </c>
@@ -5048,7 +5239,12 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A250" s="1"/>
+      <c r="A250" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B250" t="s">
+        <v>107</v>
+      </c>
       <c r="C250" s="3" t="s">
         <v>176</v>
       </c>
@@ -5096,13 +5292,21 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
+      <c r="A253" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C253" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D253" s="4"/>
-      <c r="E253" s="4"/>
+      <c r="D253" s="4">
+        <v>0</v>
+      </c>
+      <c r="E253" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
@@ -5129,7 +5333,7 @@
         <v>37</v>
       </c>
       <c r="C255" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="D255" s="2">
         <v>2075</v>
@@ -5156,6 +5360,12 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A257" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B257" t="s">
+        <v>37</v>
+      </c>
       <c r="C257" s="3" t="s">
         <v>176</v>
       </c>
@@ -5172,8 +5382,11 @@
       <c r="A258" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="B258" s="1" t="s">
         <v>169</v>
+      </c>
+      <c r="C258" t="s">
+        <v>15</v>
       </c>
       <c r="D258" s="2">
         <v>35134387</v>
@@ -5387,8 +5600,12 @@
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
+      <c r="A271" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="C271" s="3" t="s">
         <v>176</v>
       </c>
@@ -5691,7 +5908,12 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A289" s="1"/>
+      <c r="A289" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B289" t="s">
+        <v>59</v>
+      </c>
       <c r="C289" s="3" t="s">
         <v>176</v>
       </c>
@@ -5875,7 +6097,12 @@
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A300" s="1"/>
+      <c r="A300" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B300" t="s">
+        <v>127</v>
+      </c>
       <c r="C300" s="3" t="s">
         <v>176</v>
       </c>
@@ -6328,8 +6555,12 @@
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A327" s="1"/>
-      <c r="B327" s="1"/>
+      <c r="A327" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="C327" s="3" t="s">
         <v>176</v>
       </c>
@@ -6445,8 +6676,12 @@
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
+      <c r="A334" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="C334" s="3" t="s">
         <v>176</v>
       </c>
@@ -6647,8 +6882,12 @@
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A346" s="1"/>
-      <c r="B346" s="1"/>
+      <c r="A346" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="C346" s="3" t="s">
         <v>176</v>
       </c>
@@ -6798,8 +7037,12 @@
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A355" s="1"/>
-      <c r="B355" s="1"/>
+      <c r="A355" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="C355" s="3" t="s">
         <v>176</v>
       </c>
@@ -6864,8 +7107,12 @@
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A359" s="1"/>
-      <c r="B359" s="1"/>
+      <c r="A359" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C359" s="3" t="s">
         <v>176</v>
       </c>
@@ -6930,8 +7177,12 @@
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A363" s="1"/>
-      <c r="B363" s="1"/>
+      <c r="A363" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C363" s="3" t="s">
         <v>176</v>
       </c>
@@ -7013,8 +7264,12 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A368" s="1"/>
-      <c r="B368" s="1"/>
+      <c r="A368" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="C368" s="3" t="s">
         <v>176</v>
       </c>
@@ -7096,8 +7351,12 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A373" s="1"/>
-      <c r="B373" s="1"/>
+      <c r="A373" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="C373" s="3" t="s">
         <v>176</v>
       </c>
@@ -7135,7 +7394,7 @@
         <v>145</v>
       </c>
       <c r="C375" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="D375" s="2">
         <v>2454</v>
@@ -7162,6 +7421,12 @@
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A377" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="C377" s="3" t="s">
         <v>176</v>
       </c>
@@ -7178,8 +7443,11 @@
       <c r="A378" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C378" s="1" t="s">
+      <c r="B378" s="1" t="s">
         <v>171</v>
+      </c>
+      <c r="C378" t="s">
+        <v>15</v>
       </c>
       <c r="D378" s="2">
         <v>26214835</v>
@@ -7563,8 +7831,12 @@
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A401" s="1"/>
-      <c r="B401" s="1"/>
+      <c r="A401" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="C401" s="3" t="s">
         <v>176</v>
       </c>
@@ -7697,8 +7969,12 @@
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A409" s="1"/>
-      <c r="B409" s="1"/>
+      <c r="A409" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="C409" s="3" t="s">
         <v>176</v>
       </c>
@@ -7780,8 +8056,12 @@
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A414" s="1"/>
-      <c r="B414" s="1"/>
+      <c r="A414" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="C414" s="3" t="s">
         <v>176</v>
       </c>
@@ -7846,7 +8126,12 @@
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A418" s="1"/>
+      <c r="A418" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B418" t="s">
+        <v>81</v>
+      </c>
       <c r="C418" s="3" t="s">
         <v>176</v>
       </c>
@@ -7894,13 +8179,21 @@
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A421" s="1"/>
-      <c r="B421" s="1"/>
+      <c r="A421" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="C421" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D421" s="4"/>
-      <c r="E421" s="4"/>
+      <c r="D421" s="4">
+        <v>0</v>
+      </c>
+      <c r="E421" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
@@ -7927,7 +8220,7 @@
         <v>145</v>
       </c>
       <c r="C423" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="D423" s="2">
         <v>5277</v>
@@ -7954,6 +8247,12 @@
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A425" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="C425" s="3" t="s">
         <v>176</v>
       </c>
@@ -7967,6 +8266,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E425" xr:uid="{6E365D05-EB97-724F-B68F-84DFFF97DE44}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/landings/cdfw/public/fish_bulletins/raw/fb89/raw/Tables25-31.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb89/raw/Tables25-31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb89/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35482CD-7F5F-1047-B981-17375D8C4B59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76139B3A-C112-DB45-80D5-D809D2B2E38A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="2080" windowWidth="21120" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30560" yWindow="4660" windowWidth="21120" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="182">
   <si>
     <t>San Francisco region totals</t>
   </si>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E425"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6190,6 +6190,9 @@
       <c r="B305" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="C305" t="s">
+        <v>50</v>
+      </c>
       <c r="D305" s="2">
         <v>61975</v>
       </c>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb89/raw/Tables25-31.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb89/raw/Tables25-31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb89/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76139B3A-C112-DB45-80D5-D809D2B2E38A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422F2B7D-920B-1E48-9F80-7742D517A671}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30560" yWindow="4660" windowWidth="21120" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30080" yWindow="4660" windowWidth="21120" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="C310" sqref="C310"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb89/raw/Tables25-31.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb89/raw/Tables25-31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb89/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422F2B7D-920B-1E48-9F80-7742D517A671}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9BF192-CB9D-A242-8631-B72C2B028CFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="4660" windowWidth="21120" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23780" yWindow="3340" windowWidth="21120" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -934,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
       <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
